--- a/templates/new.xlsx
+++ b/templates/new.xlsx
@@ -2517,315 +2517,315 @@
       <c r="J40" s="38" t="n"/>
     </row>
     <row r="41">
-      <c r="C41" t="inlineStr">
+      <c r="C41" s="1" t="inlineStr">
         <is>
           <t>12/2 LV MC</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="C42" t="inlineStr">
+      <c r="C42" s="1" t="inlineStr">
         <is>
           <t>12/3 LV MC</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="C43" t="inlineStr">
+      <c r="C43" s="1" t="inlineStr">
         <is>
           <t>8/3 LV MC</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="C44" t="inlineStr">
+      <c r="C44" s="1" t="inlineStr">
         <is>
           <t>12/2 HV MC</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="C45" t="inlineStr">
+      <c r="C45" s="1" t="inlineStr">
         <is>
           <t>12/3 HV MC</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="C46" t="inlineStr">
+      <c r="C46" s="1" t="inlineStr">
         <is>
           <t>8/2 HV MC</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="C47" t="inlineStr">
+      <c r="C47" s="1" t="inlineStr">
         <is>
           <t>1/2" One Hole Strap</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="C48" t="inlineStr">
+      <c r="C48" s="1" t="inlineStr">
         <is>
           <t>3/4" FLEX Conduit</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="1" t="inlineStr">
         <is>
           <t>3/4" FLEX Connector</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="C50" t="inlineStr">
+      <c r="C50" s="1" t="inlineStr">
         <is>
           <t>3/4" 1 Hole Strap</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="C51" t="inlineStr">
+      <c r="C51" s="1" t="inlineStr">
         <is>
           <t>1/2" EMT</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="C52" t="inlineStr">
+      <c r="C52" s="1" t="inlineStr">
         <is>
           <t>1/2" EMT Connectors</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="C53" t="inlineStr">
+      <c r="C53" s="1" t="inlineStr">
         <is>
           <t>1/2" One Hole Strap</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="C54" t="inlineStr">
+      <c r="C54" s="1" t="inlineStr">
         <is>
           <t>1” EMT</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="C55" t="inlineStr">
+      <c r="C55" s="1" t="inlineStr">
         <is>
           <t>1” EMT Connector</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="C56" t="inlineStr">
+      <c r="C56" s="1" t="inlineStr">
         <is>
           <t>1” EMT Coupling</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="C57" t="inlineStr">
+      <c r="C57" s="1" t="inlineStr">
         <is>
           <t>1" EMT Mini Strap</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="C58" t="inlineStr">
+      <c r="C58" s="1" t="inlineStr">
         <is>
           <t>1” One Hole Strap</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="C59" t="inlineStr">
+      <c r="C59" s="1" t="inlineStr">
         <is>
           <t>1" EMT Push-On Plastic Insulating Bushing</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="C60" t="inlineStr">
+      <c r="C60" s="1" t="inlineStr">
         <is>
           <t>1-1/4” EMT</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="C61" t="inlineStr">
+      <c r="C61" s="1" t="inlineStr">
         <is>
           <t>1-1/4" EMT Connector</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="C62" t="inlineStr">
+      <c r="C62" s="1" t="inlineStr">
         <is>
           <t>1-1/4" EMT Coupling</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="C63" t="inlineStr">
+      <c r="C63" s="1" t="inlineStr">
         <is>
           <t>1-1/4" EMT 90 Degree Elbow</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="C64" t="inlineStr">
+      <c r="C64" s="1" t="inlineStr">
         <is>
           <t>1-1/4" EMT Mini Strap</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="C65" t="inlineStr">
+      <c r="C65" s="1" t="inlineStr">
         <is>
           <t>1-1/4" One Hole Strap</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="C66" t="inlineStr">
+      <c r="C66" s="1" t="inlineStr">
         <is>
           <t>1-1/4" Push-On Plastic Insulating Bushing</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="C67" t="inlineStr">
+      <c r="C67" s="1" t="inlineStr">
         <is>
           <t>#12 THHN Black Wire</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="C68" t="inlineStr">
+      <c r="C68" s="1" t="inlineStr">
         <is>
           <t>#12 THHN White Wire</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="C69" t="inlineStr">
+      <c r="C69" s="1" t="inlineStr">
         <is>
           <t>#12 THHN Green Wire</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="C70" t="inlineStr">
+      <c r="C70" s="1" t="inlineStr">
         <is>
           <t>Ceiling Wires</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="C71" t="inlineStr">
+      <c r="C71" s="1" t="inlineStr">
         <is>
           <t>KX Straps</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="C72" t="inlineStr">
+      <c r="C72" s="1" t="inlineStr">
         <is>
           <t>Duplex Receptacle</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="C73" t="inlineStr">
+      <c r="C73" s="1" t="inlineStr">
         <is>
           <t>Orange Duplex Receptacle</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="C74" t="inlineStr">
+      <c r="C74" s="1" t="inlineStr">
         <is>
           <t>Orange Decora Duplex Receptacle</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="C75" t="inlineStr">
+      <c r="C75" s="1" t="inlineStr">
         <is>
           <t>Decora Duplex Receptacle</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="C76" t="inlineStr">
+      <c r="C76" s="1" t="inlineStr">
         <is>
           <t>GFCI Duplex Receptacle</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="C77" t="inlineStr">
+      <c r="C77" s="1" t="inlineStr">
         <is>
           <t>Duplex Receptacle Cover</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="C78" t="inlineStr">
+      <c r="C78" s="1" t="inlineStr">
         <is>
           <t>Decora Duplex Receptacle Cover</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="C79" t="inlineStr">
+      <c r="C79" s="1" t="inlineStr">
         <is>
           <t>Quadruplex Receptacle Cover</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="C80" t="inlineStr">
+      <c r="C80" s="1" t="inlineStr">
         <is>
           <t>Decora Quadruplex Receptacle Cover</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="C81" t="inlineStr">
+      <c r="C81" s="1" t="inlineStr">
         <is>
           <t>Two Gang Stainless Steel Blank Plate</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="C82" t="inlineStr">
+      <c r="C82" s="1" t="inlineStr">
         <is>
           <t>Single-Pole Motor Rated 40A Switch</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="C83" t="inlineStr">
+      <c r="C83" s="1" t="inlineStr">
         <is>
           <t>Two-Pole Motor Rated 40A Switch</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="C84" t="inlineStr">
+      <c r="C84" s="1" t="inlineStr">
         <is>
           <t>Standard Exit Sign</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="C85" t="inlineStr">
+      <c r="C85" s="1" t="inlineStr">
         <is>
           <t>LED EdgeLit Exit Sign Recessed Mount</t>
         </is>
